--- a/Out/OPCIONES PARA IID2 - 1.xlsx
+++ b/Out/OPCIONES PARA IID2 - 1.xlsx
@@ -475,18 +475,18 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -495,18 +495,18 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -515,18 +515,18 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -535,17 +535,9 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
     </row>
@@ -555,26 +547,10 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -583,26 +559,10 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -613,24 +573,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -641,24 +593,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -669,17 +613,21 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM2]</t>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM2]</t>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -687,27 +635,15 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM2]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM2]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -715,27 +651,15 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM2]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM2]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -743,27 +667,15 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM2]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM2]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -771,12 +683,24 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>TALLER CMD IDI [TCM4]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -787,12 +711,24 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>TALLER CMD IDI [TCM4]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -803,12 +739,24 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>TALLER CMD IDI [TCM4]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -819,12 +767,24 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>TALLER CMD IDI [TCM4]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -883,17 +843,9 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
     </row>
@@ -903,17 +855,9 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
     </row>
@@ -923,17 +867,9 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
     </row>
@@ -943,17 +879,9 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
     </row>
@@ -1093,26 +1021,10 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT3]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT3]</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -1121,26 +1033,10 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT3]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT3]</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -1149,26 +1045,10 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT3]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT3]</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -1179,13 +1059,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE3]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE3]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -1199,24 +1079,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE3]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE3]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -1227,24 +1099,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE3]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE3]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -1255,24 +1119,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -1283,24 +1139,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -1309,11 +1157,23 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1325,7 +1185,11 @@
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1337,7 +1201,11 @@
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1349,7 +1217,11 @@
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1357,17 +1229,9 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
@@ -1377,17 +1241,9 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
@@ -1397,17 +1253,9 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
@@ -1417,17 +1265,9 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
@@ -1440,11 +1280,7 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM5]</t>
-        </is>
-      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -1456,11 +1292,7 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM5]</t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -1472,11 +1304,7 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM5]</t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -1488,11 +1316,7 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM5]</t>
-        </is>
-      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -1503,16 +1327,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -1523,16 +1355,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -1543,16 +1383,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -1563,16 +1411,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -1711,24 +1567,16 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT3]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT3]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -1739,24 +1587,16 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT3]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT3]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -1767,24 +1607,16 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT3]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT3]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -1795,17 +1627,9 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
     </row>
@@ -1815,26 +1639,10 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -1843,26 +1651,10 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -1873,24 +1665,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -1901,24 +1685,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -1929,17 +1705,21 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM2]</t>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM2]</t>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1947,19 +1727,15 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM2]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM2]</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1967,19 +1743,15 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM2]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM2]</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1987,19 +1759,15 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM2]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM2]</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -2010,11 +1778,7 @@
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM4]</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -2026,11 +1790,7 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM4]</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -2042,11 +1802,7 @@
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM4]</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -2058,11 +1814,7 @@
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM4]</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -2121,16 +1873,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -2141,16 +1901,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -2161,16 +1929,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -2181,16 +1957,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -2329,18 +2113,18 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -2349,18 +2133,18 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -2369,18 +2153,18 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -2389,17 +2173,9 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
     </row>
@@ -2409,26 +2185,14 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>TALLER CMD IDI [TCM3]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -2437,26 +2201,14 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>TALLER CMD IDI [TCM3]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -2467,24 +2219,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>TALLER CMD IDI [TCM3]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -2495,24 +2243,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>TALLER CMD IDI [TCM3]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -2521,9 +2265,17 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
     </row>
@@ -2534,17 +2286,9 @@
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -2554,17 +2298,9 @@
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -2574,17 +2310,9 @@
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -2595,18 +2323,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>TALLER CMD IDI [TCM4]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -2619,18 +2351,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>TALLER CMD IDI [TCM4]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -2643,18 +2379,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>TALLER CMD IDI [TCM4]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -2667,18 +2407,22 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>TALLER CMD IDI [TCM4]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -2737,17 +2481,9 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
     </row>
@@ -2757,17 +2493,9 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
     </row>
@@ -2777,17 +2505,9 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
     </row>
@@ -2797,17 +2517,9 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
     </row>
@@ -2947,24 +2659,16 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT3]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT3]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -2975,24 +2679,16 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT3]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT3]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -3003,24 +2699,16 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT3]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT3]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -3031,17 +2719,9 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
     </row>
@@ -3051,26 +2731,14 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>TALLER CMD IDI [TCM3]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -3079,26 +2747,14 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>TALLER CMD IDI [TCM3]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -3109,24 +2765,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>TALLER CMD IDI [TCM3]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -3137,24 +2789,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>TALLER CMD IDI [TCM3]</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -3163,9 +2811,17 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
     </row>
@@ -3211,22 +2867,10 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM4]</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -3235,22 +2879,10 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM4]</t>
-        </is>
-      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -3259,22 +2891,10 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM4]</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -3283,22 +2903,10 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM4]</t>
-        </is>
-      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -3357,16 +2965,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -3377,16 +2993,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -3397,16 +3021,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -3417,16 +3049,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -3565,18 +3205,18 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -3585,18 +3225,18 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -3605,18 +3245,18 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -3625,17 +3265,9 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
     </row>
@@ -3645,26 +3277,10 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -3673,26 +3289,10 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -3703,24 +3303,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -3731,24 +3323,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -3759,13 +3343,13 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM2]</t>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM2]</t>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -3777,26 +3361,10 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM2]</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM2]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -3805,26 +3373,10 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM2]</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM2]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -3833,26 +3385,10 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM2]</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM2]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -3861,11 +3397,31 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM2]</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -3873,11 +3429,31 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM2]</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -3885,11 +3461,31 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM2]</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -3897,11 +3493,31 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM2]</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -3912,11 +3528,7 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM5]</t>
-        </is>
-      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -3928,11 +3540,7 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM5]</t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -3944,11 +3552,7 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM5]</t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -3960,11 +3564,7 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM5]</t>
-        </is>
-      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -3973,17 +3573,9 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
     </row>
@@ -3993,17 +3585,9 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
     </row>
@@ -4013,17 +3597,9 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
     </row>
@@ -4033,17 +3609,9 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
     </row>
@@ -4183,24 +3751,16 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT3]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT3]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -4211,24 +3771,16 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT3]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT3]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -4239,24 +3791,16 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT3]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT3]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -4267,17 +3811,9 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
     </row>
@@ -4287,26 +3823,10 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -4315,26 +3835,10 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -4345,24 +3849,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -4373,24 +3869,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -4401,13 +3889,13 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM2]</t>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr">
         <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM2]</t>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
@@ -4419,17 +3907,9 @@
           <t>11:30</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM2]</t>
-        </is>
-      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM2]</t>
-        </is>
-      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
     </row>
@@ -4439,17 +3919,9 @@
           <t>12:00</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM2]</t>
-        </is>
-      </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM2]</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
     </row>
@@ -4459,17 +3931,9 @@
           <t>12:30</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM2]</t>
-        </is>
-      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM2]</t>
-        </is>
-      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
     </row>
@@ -4483,7 +3947,11 @@
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM2]</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -4495,7 +3963,11 @@
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM2]</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -4507,7 +3979,11 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM2]</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -4519,7 +3995,11 @@
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM2]</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -4530,11 +4010,7 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM5]</t>
-        </is>
-      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -4546,11 +4022,7 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM5]</t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -4562,11 +4034,7 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM5]</t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -4578,11 +4046,7 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM5]</t>
-        </is>
-      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -4593,16 +4057,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -4613,16 +4085,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -4633,16 +4113,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -4653,16 +4141,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -4801,18 +4297,18 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -4821,18 +4317,18 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr"/>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
@@ -4841,18 +4337,18 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -4861,17 +4357,9 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
     </row>
@@ -4881,24 +4369,12 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>TALLER CMD IDI [TCM4]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -4909,24 +4385,12 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>TALLER CMD IDI [TCM4]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -4939,22 +4403,18 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>TALLER CMD IDI [TCM4]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -4967,22 +4427,18 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>TALLER CMD IDI [TCM4]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -4993,9 +4449,17 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
     </row>
@@ -5006,17 +4470,9 @@
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
@@ -5026,17 +4482,9 @@
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
@@ -5046,17 +4494,9 @@
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
@@ -5065,16 +4505,24 @@
           <t>13:00</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr"/>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM4]</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM4]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -5085,16 +4533,24 @@
           <t>13:30</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM4]</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM4]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -5105,16 +4561,24 @@
           <t>14:00</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM4]</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM4]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
@@ -5125,16 +4589,24 @@
           <t>14:30</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM4]</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM4]</t>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
@@ -5148,11 +4620,7 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM5]</t>
-        </is>
-      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -5164,11 +4632,7 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM5]</t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -5180,11 +4644,7 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM5]</t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -5196,11 +4656,7 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM5]</t>
-        </is>
-      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -5209,17 +4665,9 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
     </row>
@@ -5229,17 +4677,9 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
     </row>
@@ -5249,17 +4689,9 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
     </row>
@@ -5269,17 +4701,9 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
     </row>
@@ -5419,24 +4843,16 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT3]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT3]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr"/>
@@ -5447,24 +4863,16 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT3]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT3]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -5475,24 +4883,16 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT3]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT3]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE2]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
@@ -5503,17 +4903,9 @@
           <t>08:30</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
     </row>
@@ -5523,24 +4915,12 @@
           <t>09:00</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>TALLER CMD IDI [TCM4]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -5551,24 +4931,12 @@
           <t>09:30</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>TALLER CMD IDI [TCM4]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -5581,22 +4949,18 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>TALLER CMD IDI [TCM4]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -5609,22 +4973,18 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+          <t>TALLER CMD IDI [TCM4]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -5635,9 +4995,17 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
     </row>
@@ -5684,17 +5052,9 @@
         </is>
       </c>
       <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM4]</t>
-        </is>
-      </c>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM4]</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -5704,17 +5064,9 @@
         </is>
       </c>
       <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM4]</t>
-        </is>
-      </c>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM4]</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -5724,17 +5076,9 @@
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM4]</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM4]</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -5744,17 +5088,9 @@
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM4]</t>
-        </is>
-      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM4]</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -5766,11 +5102,7 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM5]</t>
-        </is>
-      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -5782,11 +5114,7 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM5]</t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -5798,11 +5126,7 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM5]</t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -5814,11 +5138,7 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM5]</t>
-        </is>
-      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -5829,16 +5149,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="F22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -5849,16 +5177,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
     </row>
     <row r="24">
@@ -5869,16 +5205,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="F24" t="inlineStr"/>
     </row>
     <row r="25">
@@ -5889,16 +5233,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA7]</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
     </row>
     <row r="26">
@@ -6037,17 +5389,9 @@
           <t>07:00</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr"/>
     </row>
@@ -6057,17 +5401,9 @@
           <t>07:30</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
     </row>
@@ -6077,17 +5413,9 @@
           <t>08:00</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
-        </is>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
     </row>
@@ -6099,13 +5427,13 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE3]</t>
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr">
         <is>
-          <t>GEOMETRÍA DESCRIPTIVA [GDE]</t>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE3]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr"/>
@@ -6119,24 +5447,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE3]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE3]</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
@@ -6147,24 +5467,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE3]</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>GEOMETRÍA DESCRIPTIVA [GDE3]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
@@ -6175,24 +5487,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
@@ -6203,24 +5507,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr">
         <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
-        </is>
-      </c>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
@@ -6229,11 +5525,23 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>PRINCIPIOS DE DIBUJO [PD3]</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -6242,18 +5550,14 @@
         </is>
       </c>
       <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -6262,18 +5566,14 @@
         </is>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -6282,18 +5582,14 @@
         </is>
       </c>
       <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>GEOMETRÍA Y TRIGONOMETRÍA [GYT4]</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>TALLER CMD IDI [TCM1]</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -6303,16 +5599,24 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
@@ -6323,16 +5627,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
@@ -6343,16 +5655,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -6363,16 +5683,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>TALLER DE METODOLOGÍA DEL DISE [TM3]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr"/>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ÁLGEBRA AMPLIADA [ALA1]</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -6384,11 +5712,7 @@
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM5]</t>
-        </is>
-      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
     </row>
     <row r="19">
@@ -6400,11 +5724,7 @@
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM5]</t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
     </row>
     <row r="20">
@@ -6416,11 +5736,7 @@
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM5]</t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
@@ -6432,11 +5748,7 @@
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>TALLER CMD IDI [TCM5]</t>
-        </is>
-      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
     </row>
     <row r="22">
@@ -6445,17 +5757,9 @@
           <t>17:00</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
     </row>
@@ -6465,17 +5769,9 @@
           <t>17:30</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
     </row>
@@ -6485,17 +5781,9 @@
           <t>18:00</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
     </row>
@@ -6505,17 +5793,9 @@
           <t>18:30</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>PRINCIPIOS DE DIBUJO [PDE]</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
     </row>
